--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Hazard type.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Hazard type.xlsx
@@ -68,6 +68,12 @@
     <t>Hazard type_7</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Hazard type_13</t>
+  </si>
+  <si>
     <t>Pesticide residues</t>
   </si>
   <si>
@@ -96,12 +102,6 @@
   </si>
   <si>
     <t>Hazard type_12</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Hazard type_13</t>
   </si>
 </sst>
 </file>
